--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -534,22 +534,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H2">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I2">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J2">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N2">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O2">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P2">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q2">
-        <v>0.4520315171882222</v>
+        <v>0.6745343306279998</v>
       </c>
       <c r="R2">
-        <v>4.068283654694</v>
+        <v>6.070808975651999</v>
       </c>
       <c r="S2">
-        <v>0.01732333481959426</v>
+        <v>0.03625173719032244</v>
       </c>
       <c r="T2">
-        <v>0.01897703365539306</v>
+        <v>0.03678967079256891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H3">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I3">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J3">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N3">
         <v>2.953636</v>
       </c>
       <c r="O3">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P3">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q3">
-        <v>0.3908188800662223</v>
+        <v>0.7484553005813331</v>
       </c>
       <c r="R3">
-        <v>3.517369920596</v>
+        <v>6.736097705231999</v>
       </c>
       <c r="S3">
-        <v>0.01497746518941715</v>
+        <v>0.04022449803276476</v>
       </c>
       <c r="T3">
-        <v>0.01640722551009982</v>
+        <v>0.04082138278374154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H4">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I4">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J4">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N4">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O4">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P4">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q4">
-        <v>4.381865539704333</v>
+        <v>11.73577949828533</v>
       </c>
       <c r="R4">
-        <v>39.436789857339</v>
+        <v>105.622015484568</v>
       </c>
       <c r="S4">
-        <v>0.1679275028230666</v>
+        <v>0.6307201498540804</v>
       </c>
       <c r="T4">
-        <v>0.1839579911100563</v>
+        <v>0.6400793030565651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H5">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I5">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J5">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N5">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O5">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P5">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q5">
-        <v>0.4452799969076666</v>
+        <v>0.4159159706439999</v>
       </c>
       <c r="R5">
-        <v>2.671679981446</v>
+        <v>2.495495823864</v>
       </c>
       <c r="S5">
-        <v>0.01706459435147631</v>
+        <v>0.02235271916702393</v>
       </c>
       <c r="T5">
-        <v>0.0124623957490875</v>
+        <v>0.01512293834189156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H6">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I6">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J6">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N6">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O6">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P6">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q6">
-        <v>5.748238809513667</v>
+        <v>3.322850670394666</v>
       </c>
       <c r="R6">
-        <v>51.734149285623</v>
+        <v>29.90565603355199</v>
       </c>
       <c r="S6">
-        <v>0.2202914215796316</v>
+        <v>0.1785811392485913</v>
       </c>
       <c r="T6">
-        <v>0.2413206097351737</v>
+        <v>0.1812310755819849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H7">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I7">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J7">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N7">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O7">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P7">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q7">
-        <v>0.232798920703</v>
+        <v>0.014417851443</v>
       </c>
       <c r="R7">
-        <v>1.396793524218</v>
+        <v>0.086507108658</v>
       </c>
       <c r="S7">
-        <v>0.008921620496871228</v>
+        <v>0.00077486369133226</v>
       </c>
       <c r="T7">
-        <v>0.006515523490633746</v>
+        <v>0.0005242411779894627</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H8">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I8">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J8">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N8">
         <v>2.953636</v>
       </c>
       <c r="O8">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P8">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q8">
-        <v>0.201274048402</v>
+        <v>0.01599787712133333</v>
       </c>
       <c r="R8">
-        <v>1.207644290412</v>
+        <v>0.095987262728</v>
       </c>
       <c r="S8">
-        <v>0.007713483680632864</v>
+        <v>0.0008597795703974125</v>
       </c>
       <c r="T8">
-        <v>0.005633212501406951</v>
+        <v>0.0005816917992652993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H9">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I9">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J9">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N9">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O9">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P9">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q9">
-        <v>2.2566868227555</v>
+        <v>0.2508467214953333</v>
       </c>
       <c r="R9">
-        <v>13.540120936533</v>
+        <v>1.505080328972</v>
       </c>
       <c r="S9">
-        <v>0.08648366303467671</v>
+        <v>0.01348134410629115</v>
       </c>
       <c r="T9">
-        <v>0.06315963991699734</v>
+        <v>0.009120927711830094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H10">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I10">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J10">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N10">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O10">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P10">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q10">
-        <v>0.2293218475905</v>
+        <v>0.008890006638999999</v>
       </c>
       <c r="R10">
-        <v>0.9172873903619999</v>
+        <v>0.035560026556</v>
       </c>
       <c r="S10">
-        <v>0.008788367616420049</v>
+        <v>0.0004777787722045291</v>
       </c>
       <c r="T10">
-        <v>0.004278805303677051</v>
+        <v>0.0002154970903576725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H11">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I11">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J11">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N11">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O11">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P11">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q11">
-        <v>2.9603771859135</v>
+        <v>0.07102435733466665</v>
       </c>
       <c r="R11">
-        <v>17.762263115481</v>
+        <v>0.4261461440079999</v>
       </c>
       <c r="S11">
-        <v>0.1134513927322323</v>
+        <v>0.003817087165616544</v>
       </c>
       <c r="T11">
-        <v>0.08285436649667027</v>
+        <v>0.002582485532069176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H12">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I12">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J12">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N12">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O12">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P12">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q12">
-        <v>0.3481853668475555</v>
+        <v>0.05382049339200001</v>
       </c>
       <c r="R12">
-        <v>3.133668301627999</v>
+        <v>0.4843844405280001</v>
       </c>
       <c r="S12">
-        <v>0.01334360870831025</v>
+        <v>0.002892493818785745</v>
       </c>
       <c r="T12">
-        <v>0.01461739983548563</v>
+        <v>0.002935415061738771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H13">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I13">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J13">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N13">
         <v>2.953636</v>
       </c>
       <c r="O13">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P13">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q13">
-        <v>0.3010352374835555</v>
+        <v>0.05971858173866667</v>
       </c>
       <c r="R13">
-        <v>2.709317137352</v>
+        <v>0.537467235648</v>
       </c>
       <c r="S13">
-        <v>0.01153666063787372</v>
+        <v>0.00320947686762419</v>
       </c>
       <c r="T13">
-        <v>0.012637959115594</v>
+        <v>0.003257101770223029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H14">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I14">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J14">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N14">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O14">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P14">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q14">
-        <v>3.375210361235333</v>
+        <v>0.9363873923946667</v>
       </c>
       <c r="R14">
-        <v>30.376893251118</v>
+        <v>8.427486531552001</v>
       </c>
       <c r="S14">
-        <v>0.1293491647174172</v>
+        <v>0.05032459893600812</v>
       </c>
       <c r="T14">
-        <v>0.1416969352438401</v>
+        <v>0.05107135743326663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H15">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I15">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J15">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N15">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O15">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P15">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q15">
-        <v>0.3429848875086666</v>
+        <v>0.033185564816</v>
       </c>
       <c r="R15">
-        <v>2.057909325052</v>
+        <v>0.199113388896</v>
       </c>
       <c r="S15">
-        <v>0.01314430923164911</v>
+        <v>0.001783503551408574</v>
       </c>
       <c r="T15">
-        <v>0.009599383385226718</v>
+        <v>0.001206645779377345</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H16">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I16">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J16">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N16">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O16">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P16">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q16">
-        <v>4.427683828480666</v>
+        <v>0.2651272951253333</v>
       </c>
       <c r="R16">
-        <v>39.849154456326</v>
+        <v>2.386145656128</v>
       </c>
       <c r="S16">
-        <v>0.1696834103807309</v>
+        <v>0.0142488300275486</v>
       </c>
       <c r="T16">
-        <v>0.185881518950658</v>
+        <v>0.0144602660871304</v>
       </c>
     </row>
   </sheetData>
